--- a/batches/22/day_13/day_13.xlsx
+++ b/batches/22/day_13/day_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/22/day_13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA63BD9F-EE92-B047-9CE1-ADFC4ED85C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174FB556-8CF4-DA47-910F-8869B31698CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{DD5D0FE7-E9CC-B24C-BFBD-EDB3BB5025A1}"/>
   </bookViews>
@@ -1985,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59963E83-8DA7-5D4A-93DE-78B94130E106}">
-  <dimension ref="B2:N68"/>
+  <dimension ref="B2:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="226" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="226" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2648,6 +2648,10 @@
       <c r="G36">
         <v>100</v>
       </c>
+      <c r="H36">
+        <f>AVERAGE($D$36:$D$38)</f>
+        <v>80</v>
+      </c>
       <c r="I36">
         <v>1</v>
       </c>
@@ -2685,6 +2689,10 @@
       <c r="G37" s="11">
         <v>100</v>
       </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H38" si="0">AVERAGE($D$36:$D$38)</f>
+        <v>80</v>
+      </c>
       <c r="I37">
         <v>1</v>
       </c>
@@ -2698,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N38" si="0">AVERAGEIF($I$36:$I$47,M37,$K$36:$K$47)</f>
+        <f t="shared" ref="N37:N38" si="1">AVERAGEIF($I$36:$I$47,M37,$K$36:$K$47)</f>
         <v>80</v>
       </c>
     </row>
@@ -2718,6 +2726,10 @@
       <c r="F38">
         <v>3</v>
       </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="I38">
         <v>1</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.75</v>
       </c>
     </row>
@@ -3239,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H65">
         <v>81</v>
       </c>
@@ -3256,7 +3268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H66">
         <v>93</v>
       </c>
@@ -3273,7 +3285,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="7"/>
+      <c r="C67" s="9"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="9"/>
       <c r="H67">
         <v>81</v>
       </c>
@@ -3290,7 +3306,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
       <c r="H68">
         <v>82</v>
       </c>
@@ -3306,6 +3326,90 @@
       <c r="L68">
         <v>7</v>
       </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="13"/>
+      <c r="C82" s="15"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
